--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>805203.6015225126</v>
+        <v>802722.6816970521</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.813695076354</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>43.81584958587416</v>
       </c>
       <c r="D11" t="n">
         <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851352</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
-        <v>60.27937910604351</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
         <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579941</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.2676152010493</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524936</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717754</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830083</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
         <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>99.65310568714766</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310858</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594426</v>
+        <v>68.85017973406273</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271155</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292085</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1582,16 +1582,16 @@
         <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184863</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
         <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494644</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019106</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649683</v>
@@ -1607,25 +1607,25 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>105.4402674106269</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545849</v>
+        <v>72.02498669957708</v>
       </c>
       <c r="G14" t="n">
         <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579944</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104932</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
         <v>224.0750253717755</v>
@@ -1765,25 +1765,25 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115013</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310858</v>
+        <v>88.4420253465222</v>
       </c>
       <c r="E16" t="n">
         <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358047</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>49.04503081074276</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271158</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292083</v>
+        <v>62.01200608292085</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
         <v>192.6288026890427</v>
@@ -1822,13 +1822,13 @@
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
         <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019106</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6645067649683</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149638</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477343</v>
+        <v>3.974324134329095</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245678</v>
+        <v>35.29247858245689</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>97.90474570419559</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727499</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290874</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249326</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085007</v>
+        <v>72.53867944085022</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721215</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330913</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860169</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411902</v>
+        <v>22.45713720411916</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432828</v>
+        <v>15.03686946432839</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>274.7162491948567</v>
+        <v>274.7162491948554</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149638</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477343</v>
+        <v>224.6868053159314</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245689</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644158</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W20" t="n">
-        <v>163.006048379892</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727499</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247633</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290874</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249326</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085007</v>
+        <v>72.53867944085022</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721215</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G22" t="n">
-        <v>154.5302192482731</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860169</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411916</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432839</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>208.0533602654117</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2321,16 +2321,16 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
         <v>220.7124811816014</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245678</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2381,7 +2381,7 @@
         <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503345</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290874</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249326</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085007</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721215</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330913</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860169</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432828</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257228</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948574</v>
       </c>
       <c r="V25" t="n">
         <v>178.2423601181089</v>
@@ -2542,7 +2542,7 @@
         <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.0890643413395</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
         <v>307.7079050020903</v>
@@ -2965,7 +2965,7 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124552</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958333</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572827</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007074</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.233249911515</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383219</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052273</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010725</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846416</v>
+        <v>90.9561806828589</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482614</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092312</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621568</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>164.0711673124579</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>89.94326605921958</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>170.2318734253261</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,13 +3749,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>110.5480262953173</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
-        <v>42.20693826439307</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>89.94326605922006</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>164.0711673124577</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1827.830846683895</v>
+        <v>1498.714766761816</v>
       </c>
       <c r="C11" t="n">
-        <v>1486.060397003207</v>
+        <v>1454.456332836691</v>
       </c>
       <c r="D11" t="n">
-        <v>1154.986765656181</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="E11" t="n">
-        <v>796.39058031766</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>412.5967427877762</v>
+        <v>739.5888639597797</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810644999</v>
+        <v>351.7084810645</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299091</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395991</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3063.721540039937</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573496</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489649</v>
+        <v>2533.51231048965</v>
       </c>
       <c r="W11" t="n">
-        <v>2533.512310489649</v>
+        <v>2207.93572247926</v>
       </c>
       <c r="X11" t="n">
-        <v>2187.238619488293</v>
+        <v>1861.662031477904</v>
       </c>
       <c r="Y11" t="n">
-        <v>2187.238619488293</v>
+        <v>1498.714766761816</v>
       </c>
     </row>
     <row r="12">
@@ -5109,13 +5109,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5124,7 +5124,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>480.9510275436863</v>
+        <v>418.3126375609372</v>
       </c>
       <c r="C13" t="n">
-        <v>380.2913248293955</v>
+        <v>276.5685218927539</v>
       </c>
       <c r="D13" t="n">
-        <v>257.3667526767836</v>
+        <v>276.5685218927539</v>
       </c>
       <c r="E13" t="n">
-        <v>136.6457263541143</v>
+        <v>207.0228857977408</v>
       </c>
       <c r="F13" t="n">
-        <v>136.6457263541143</v>
+        <v>207.0228857977408</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003742</v>
@@ -5215,34 +5215,34 @@
         <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784765</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058535</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058535</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145085</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974335</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359702</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.030523413539</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.805420636302</v>
+        <v>967.1670306535531</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0079369980086</v>
+        <v>766.3695470152595</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.4074251142023</v>
+        <v>572.7690351314532</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1318.09267431347</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="C14" t="n">
-        <v>1211.587353696675</v>
+        <v>797.5365442767275</v>
       </c>
       <c r="D14" t="n">
-        <v>1211.587353696675</v>
+        <v>797.5365442767275</v>
       </c>
       <c r="E14" t="n">
-        <v>852.9911683581545</v>
+        <v>797.5365442767275</v>
       </c>
       <c r="F14" t="n">
-        <v>469.1973308282707</v>
+        <v>724.7840324589722</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31694793299094</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299094</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
@@ -5291,37 +5291,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
         <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.507220395989</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.16881092955</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>2712.297990845703</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2386.721402835312</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X14" t="n">
-        <v>2040.447711833956</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1677.500447117868</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5385,22 +5385,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.2988754205505</v>
+        <v>418.312637560937</v>
       </c>
       <c r="C16" t="n">
-        <v>668.5547597523673</v>
+        <v>276.5685218927538</v>
       </c>
       <c r="D16" t="n">
-        <v>545.6301875997553</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E16" t="n">
-        <v>424.9091612770859</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F16" t="n">
-        <v>305.2112810388993</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765328</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541143</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402572</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5452,34 +5452,34 @@
         <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784765</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058535</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>2077.863719075786</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1883.289170905036</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1621.378371290403</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1621.378371290403</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1359.153268513166</v>
+        <v>967.167030653553</v>
       </c>
       <c r="X16" t="n">
-        <v>1158.355784874873</v>
+        <v>766.3695470152593</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.7552729910665</v>
+        <v>572.7690351314529</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666651</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809386</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>940.9592424104326</v>
       </c>
       <c r="E17" t="n">
-        <v>966.228971144636</v>
+        <v>629.8126900199852</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628256</v>
+        <v>293.4684854381746</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5528,13 +5528,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
@@ -5546,19 +5546,19 @@
         <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.620805936081</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>3059.72712340659</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344273</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290991</v>
+        <v>2146.35982916634</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522976</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,37 +5607,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.121778987228</v>
+        <v>569.1217789872289</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671181</v>
+        <v>474.827296267119</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625795</v>
+        <v>399.3523570625802</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879834</v>
+        <v>326.080963687984</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978701</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803861</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604099</v>
+        <v>89.19609340604114</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5677,19 +5677,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088492</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865763</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062878</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064788</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356241</v>
+        <v>975.6272732356254</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454038</v>
+        <v>822.2794225454049</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096707</v>
+        <v>676.1285436096717</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1632.378438483216</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C20" t="n">
-        <v>1338.057621750601</v>
+        <v>1224.583240809386</v>
       </c>
       <c r="D20" t="n">
-        <v>1054.433623351647</v>
+        <v>940.9592424104328</v>
       </c>
       <c r="E20" t="n">
-        <v>743.2870709612002</v>
+        <v>629.8126900199854</v>
       </c>
       <c r="F20" t="n">
-        <v>406.9428663793898</v>
+        <v>293.4684854381747</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
         <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936081</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417714</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.31084228194</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
-        <v>2558.658268160837</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2259.834210107555</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y20" t="n">
-        <v>1944.33657833954</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235551</v>
+        <v>569.1217789872289</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034453</v>
+        <v>474.827296267119</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989066</v>
+        <v>399.3523570625802</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1109578243106</v>
+        <v>326.080963687984</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8627105341973</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803861</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604099</v>
+        <v>89.19609340604116</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729439</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356254</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817308</v>
+        <v>822.2794225454049</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459978</v>
+        <v>676.1285436096717</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5972,13 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349353</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
         <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059181</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
         <v>73.37775482248237</v>
@@ -5990,25 +5990,25 @@
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>916.9802179168072</v>
+        <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1368.014431165216</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1901.54633583714</v>
+        <v>1917.058658516337</v>
       </c>
       <c r="N23" t="n">
-        <v>2448.325152895922</v>
+        <v>2463.837475575119</v>
       </c>
       <c r="O23" t="n">
-        <v>2951.297623775259</v>
+        <v>2966.809946454456</v>
       </c>
       <c r="P23" t="n">
-        <v>3346.071990132436</v>
+        <v>3361.584312811633</v>
       </c>
       <c r="Q23" t="n">
-        <v>3594.358351888119</v>
+        <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
         <v>3668.887741124118</v>
@@ -6069,16 +6069,16 @@
         <v>167.0550243130996</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061119</v>
+        <v>772.0173836061124</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.987417377527</v>
+        <v>575.9874173775271</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574171</v>
+        <v>481.6929346574173</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528784</v>
+        <v>406.2179954528785</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782824</v>
+        <v>332.9466020782825</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881691</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706851</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633997</v>
+        <v>96.06173179634</v>
       </c>
       <c r="I25" t="n">
         <v>73.37775482248237</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1377.311169453176</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>982.4929116259232</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720297</v>
+        <v>829.1450609357029</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999697</v>
+        <v>682.9941819999698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557145</v>
@@ -6242,22 +6242,22 @@
         <v>3051.647429808958</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6266,10 +6266,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,10 +6300,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
         <v>413.0883853676542</v>
@@ -6370,7 +6370,7 @@
         <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6379,19 +6379,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6443,13 +6443,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398486</v>
@@ -6461,22 +6461,22 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1326.966459396848</v>
+        <v>1076.411957014866</v>
       </c>
       <c r="M29" t="n">
-        <v>2305.516762226676</v>
+        <v>1609.943861686791</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
@@ -6506,7 +6506,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6540,10 +6540,10 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
         <v>779.7865456803195</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668916</v>
@@ -6701,19 +6701,19 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.094314970129</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.07620941149</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P32" t="n">
         <v>3539.850575768668</v>
@@ -6743,7 +6743,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676534</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803187</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502697994</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899658</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257034</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415467</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.02296113027</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668916</v>
@@ -6859,49 +6859,49 @@
         <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519658</v>
       </c>
     </row>
     <row r="35">
@@ -6920,25 +6920,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307329</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,40 +6947,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,73 +6990,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
         <v>1109.759191501176</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909355</v>
+        <v>444.8926667912277</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630286</v>
+        <v>374.6279184371643</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245364</v>
+        <v>323.1827135986721</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159863</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919195</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.057868640482</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7123,22 +7123,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1569.880212084553</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1379.44877978404</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V37" t="n">
-        <v>1124.764291578153</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150358</v>
+        <v>877.9803925153277</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908619</v>
+        <v>649.9908416173104</v>
       </c>
       <c r="Y37" t="n">
-        <v>682.5792952211752</v>
+        <v>527.8696970476238</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,13 +7157,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307333</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7205,16 +7205,16 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650704</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C40" t="n">
-        <v>374.6279184371635</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D40" t="n">
-        <v>323.1827135986712</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>273.9410545901215</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058688</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891709</v>
+        <v>779.3089579414841</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649969</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953102</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="41">
@@ -7388,73 +7388,73 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810568</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031482</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650702</v>
+        <v>543.5641013650709</v>
       </c>
       <c r="C43" t="n">
-        <v>473.2993530110067</v>
+        <v>473.2993530110074</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725144</v>
+        <v>323.1827135986717</v>
       </c>
       <c r="E43" t="n">
-        <v>372.6124891639647</v>
+        <v>273.9410545901221</v>
       </c>
       <c r="F43" t="n">
-        <v>324.3939762398977</v>
+        <v>225.7225416660552</v>
       </c>
       <c r="G43" t="n">
-        <v>156.6911396146167</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>109.1453874063179</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058688</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
         <v>1323.410616184332</v>
       </c>
       <c r="V43" t="n">
-        <v>1068.726127978445</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W43" t="n">
-        <v>877.9803925153273</v>
+        <v>877.9803925153276</v>
       </c>
       <c r="X43" t="n">
-        <v>748.6622761911533</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214665</v>
+        <v>626.5411316214671</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7664,7 +7664,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.2736995386226</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C46" t="n">
-        <v>628.0089511845591</v>
+        <v>473.2993530110072</v>
       </c>
       <c r="D46" t="n">
-        <v>576.5637463460668</v>
+        <v>421.854148172515</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>273.9410545901218</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1668.551646658397</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U46" t="n">
-        <v>1478.120214357884</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.10716072584</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>1131.361425262723</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X46" t="n">
-        <v>903.3718743647057</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.250729795019</v>
+        <v>626.5411316214669</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430624</v>
+        <v>157.2353108430631</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728996</v>
+        <v>184.4039433729008</v>
       </c>
       <c r="L8" t="n">
-        <v>191.494890938959</v>
+        <v>191.4948909389604</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333052</v>
+        <v>181.0856325333068</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830225</v>
+        <v>179.3553748830241</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383976</v>
+        <v>182.8301554383991</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586572</v>
+        <v>190.8908035586585</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266115</v>
+        <v>192.0103836266124</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.656200187597</v>
+        <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372525</v>
+        <v>113.6031223372533</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672264</v>
+        <v>105.9629718672274</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253581</v>
+        <v>104.1013981253593</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677533</v>
+        <v>92.30246558677658</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359724</v>
+        <v>106.8829608359736</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798315</v>
+        <v>105.3113487798324</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615452</v>
+        <v>120.8212784615458</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564652</v>
+        <v>116.1755252564658</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085221</v>
+        <v>119.1996074085228</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140772</v>
+        <v>108.4284123140778</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530919</v>
+        <v>120.6694600530925</v>
       </c>
       <c r="P10" t="n">
-        <v>122.50808566627</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.814425378434</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>15.66901280726981</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>94.37250464902104</v>
+        <v>306.6874953089263</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>105.7385611944698</v>
+        <v>21.74982042514841</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>187.8883066283072</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>131.2335379367263</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>294.5368955980069</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>323.7221999602834</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302864</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.317792068927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>40.67356882435364</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>50.66363632537995</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358047</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271942</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292078</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>232.9124777732541</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>307.9309124550078</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524936</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.25330108456367</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>90.06063086115896</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0521183134054</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>155.9522295602202</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>112.3396371318031</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>112.3396371318019</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1043365.338885289</v>
+        <v>1043365.33888529</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>868188.4924335678</v>
+        <v>868188.4924335675</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>944552.7063349024</v>
+        <v>944552.7063349022</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>944552.7063349024</v>
+        <v>944552.7063349023</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>975703.070960755</v>
+        <v>975703.0709607549</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>975703.070960755</v>
+        <v>975703.0709607549</v>
       </c>
     </row>
     <row r="16">
@@ -26317,19 +26317,19 @@
         <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
-        <v>471096.7351384193</v>
+        <v>471096.735138419</v>
       </c>
       <c r="E2" t="n">
-        <v>419485.5005203609</v>
+        <v>419485.5005203607</v>
       </c>
       <c r="F2" t="n">
-        <v>419485.5005203609</v>
+        <v>419485.5005203606</v>
       </c>
       <c r="G2" t="n">
-        <v>456855.2222167589</v>
+        <v>456855.2222167585</v>
       </c>
       <c r="H2" t="n">
-        <v>456855.2222167586</v>
+        <v>456855.2222167585</v>
       </c>
       <c r="I2" t="n">
         <v>472099.0176719635</v>
@@ -26338,22 +26338,22 @@
         <v>472099.0176719634</v>
       </c>
       <c r="K2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719634</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719638</v>
+        <v>472099.0176719634</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="O2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="P2" t="n">
         <v>472099.0176719631</v>
-      </c>
-      <c r="P2" t="n">
-        <v>472099.0176719632</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552471</v>
+        <v>59764.55367552279</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.97216363</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487371</v>
+        <v>37580.1092948738</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983366</v>
+        <v>22821.46782983368</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179701</v>
+        <v>25409.43302179704</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.109294874</v>
+        <v>37580.10929487398</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.938799542</v>
+        <v>421637.9387995426</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362525</v>
+        <v>38804.2740136252</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362521</v>
+        <v>38804.2740136252</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.43437506745</v>
+        <v>75832.43437506736</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506745</v>
+        <v>75832.43437506736</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.16093451314</v>
+        <v>88045.16093451309</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173091</v>
+        <v>84858.15940173094</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173093</v>
+        <v>84858.15940173095</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173091</v>
+        <v>84858.15940173095</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="O4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="P4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815718</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186641</v>
+        <v>35148.90543186636</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482646</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
@@ -26491,7 +26491,7 @@
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,10 +26500,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4192.955233523469</v>
+        <v>-4197.368811391581</v>
       </c>
       <c r="C6" t="n">
-        <v>-4192.955233523469</v>
+        <v>-4197.368811391581</v>
       </c>
       <c r="D6" t="n">
-        <v>-45454.66276851383</v>
+        <v>-45459.02051865858</v>
       </c>
       <c r="E6" t="n">
-        <v>-785127.2360217209</v>
+        <v>-785355.9904441216</v>
       </c>
       <c r="F6" t="n">
-        <v>304111.7361419095</v>
+        <v>303882.9817195109</v>
       </c>
       <c r="G6" t="n">
-        <v>262924.0354216029</v>
+        <v>262857.7580500582</v>
       </c>
       <c r="H6" t="n">
-        <v>300504.1447164762</v>
+        <v>300437.8673449319</v>
       </c>
       <c r="I6" t="n">
-        <v>275495.8606057746</v>
+        <v>275495.8606057747</v>
       </c>
       <c r="J6" t="n">
         <v>272453.4835736293</v>
       </c>
       <c r="K6" t="n">
-        <v>297862.9165954262</v>
+        <v>297862.9165954263</v>
       </c>
       <c r="L6" t="n">
-        <v>260282.8073005527</v>
+        <v>260282.8073005523</v>
       </c>
       <c r="M6" t="n">
-        <v>96448.30938483142</v>
+        <v>96448.30938483175</v>
       </c>
       <c r="N6" t="n">
+        <v>298616.4093775559</v>
+      </c>
+      <c r="O6" t="n">
+        <v>298616.4093775559</v>
+      </c>
+      <c r="P6" t="n">
         <v>298616.4093775561</v>
-      </c>
-      <c r="O6" t="n">
-        <v>298616.4093775561</v>
-      </c>
-      <c r="P6" t="n">
-        <v>298616.4093775562</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G2" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H2" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I2" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790867</v>
+        <v>69.78465283790642</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>917.2219352810296</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712654</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859247</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951249</v>
+        <v>50.70958360951252</v>
       </c>
       <c r="N2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790867</v>
+        <v>69.78465283790642</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.99204775539</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873693</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758485</v>
+        <v>97.11452592758496</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.4664495959707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712654</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104723</v>
+        <v>199.6603204104727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780169</v>
+        <v>132.2465643780175</v>
       </c>
       <c r="S8" t="n">
-        <v>202.627234303657</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.2286184667209</v>
+        <v>84.22861846672106</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987487</v>
+        <v>90.83829126987517</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519055</v>
+        <v>84.46220888519083</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989861</v>
+        <v>7.649035050990332</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317018</v>
+        <v>75.62456067317052</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="S19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U19" t="n">
-        <v>11.49558901075619</v>
+        <v>11.4955890107575</v>
       </c>
       <c r="V19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G22" t="n">
-        <v>11.49558901075514</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="S22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T22" t="n">
-        <v>73.8952832057191</v>
+        <v>11.49558901075747</v>
       </c>
       <c r="U22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U25" t="n">
-        <v>73.8952832057191</v>
+        <v>11.49558901075551</v>
       </c>
       <c r="V25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.49558901075531</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859375</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810501</v>
+        <v>55.47778196371027</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30195,22 +30195,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>55.47778196371127</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810511</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>55.47778196371166</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371104</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>55.4777819637109</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>54.14548214544504</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>55.47778196371118</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>55.47778196371149</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413412</v>
+        <v>0.2805413179413321</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366761</v>
+        <v>2.873093772366668</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993357</v>
+        <v>10.81556915993322</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362392</v>
+        <v>23.81059368362316</v>
       </c>
       <c r="K8" t="n">
-        <v>35.6859076720809</v>
+        <v>35.68590767207976</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102824</v>
+        <v>44.27152403102681</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396755</v>
+        <v>49.26060069396597</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135684</v>
+        <v>50.05768871356678</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328918</v>
+        <v>47.26805598328766</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661232</v>
+        <v>40.34219219661102</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783803</v>
+        <v>30.29530624783705</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313279</v>
+        <v>17.62255356313222</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588318</v>
+        <v>6.392835282588113</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288221</v>
+        <v>1.228069619288182</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530729</v>
+        <v>0.02244330543530657</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796526</v>
+        <v>0.1501028381796478</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840329</v>
+        <v>1.449677410840283</v>
       </c>
       <c r="I9" t="n">
-        <v>5.16801438469418</v>
+        <v>5.168014384694014</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906972</v>
+        <v>14.18142647906927</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710645</v>
+        <v>24.23831663710567</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264782</v>
+        <v>32.59140791264677</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579666022</v>
+        <v>38.03263579665899</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655799</v>
+        <v>39.03924649655673</v>
       </c>
       <c r="O9" t="n">
-        <v>35.713283608472</v>
+        <v>35.71328360847085</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449875</v>
+        <v>28.66305863449783</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447636</v>
+        <v>19.16049562447574</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768259</v>
+        <v>9.31954288276796</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608896</v>
+        <v>2.788094384608807</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890381</v>
+        <v>0.6050197731890187</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00987518672234557</v>
+        <v>0.009875186722345252</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486877</v>
+        <v>0.1258411772486837</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811061</v>
+        <v>1.118842466811025</v>
       </c>
       <c r="I10" t="n">
-        <v>3.78438740307872</v>
+        <v>3.784387403078598</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482222</v>
+        <v>8.896971231481936</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489299</v>
+        <v>14.62045677489252</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477309</v>
+        <v>18.70915102477248</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908293</v>
+        <v>19.7261765390823</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115602</v>
+        <v>19.2571321511554</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875089</v>
+        <v>17.78707839875032</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287765</v>
+        <v>15.21991838287716</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852421</v>
+        <v>10.53748257852387</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381904</v>
+        <v>5.658276933381722</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233948</v>
+        <v>2.193068516233878</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625747</v>
+        <v>0.5376850300625575</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564794</v>
+        <v>0.006864064213564574</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970261</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32342,7 +32342,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32391,16 +32391,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32409,19 +32409,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -32801,7 +32801,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -33023,10 +33023,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33260,13 +33260,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
-        <v>378.512347035316</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019278</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K13" t="n">
         <v>232.9678061314461</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573247</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806104</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
         <v>371.7770927546666</v>
@@ -35583,7 +35583,7 @@
         <v>329.2732768097663</v>
       </c>
       <c r="P13" t="n">
-        <v>261.877217732237</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250202</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019273</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K16" t="n">
         <v>232.9678061314461</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525818</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>878.7355412086605</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>75.28221134949453</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36449,7 +36449,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36610,10 +36610,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>493.1344908683927</v>
+        <v>705.449481528298</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120763</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>561.3286755868018</v>
+        <v>477.3399348174804</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597774</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -37069,7 +37069,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37081,10 +37081,10 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>695.9413075165262</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>529.995524156098</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636241</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120775</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.191286555402</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
-        <v>240.670908060957</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -38026,7 +38026,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
